--- a/Ford/하이퍼파라미터.xlsx
+++ b/Ford/하이퍼파라미터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A0B652-154C-E24E-AFC4-2481E63105FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67033550-4FB0-0C49-8C26-A4806A1CC27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="1240" windowWidth="27900" windowHeight="16760" xr2:uid="{2D612C08-B936-334A-9D89-A8C79B542E65}"/>
   </bookViews>
@@ -36,103 +36,137 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Conv 1D 레이어수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>활성함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>optimizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>필터 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Batch_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>최적모델 저장 기준
 (monitor)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>검증 데이터 비중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>kernel_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>데이터 정규화
 StandardScaler()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>배치 정규화
 BatchNormalization()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>epoch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>relu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>swish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>softplus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LeakyReLU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>adam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SGD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>val_sparse_categorical_accuracy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>val_loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이퍼파라미터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건2</t>
+  </si>
+  <si>
+    <t>조건3</t>
+  </si>
+  <si>
+    <t>조건4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -146,20 +180,53 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -168,18 +235,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,181 +571,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A2A66-7DDE-7D44-9C3B-9B5B8D244C70}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" ht="26" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="26" customHeight="1">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:6" ht="26" customHeight="1">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="2:6" ht="26" customHeight="1">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" ht="26" customHeight="1">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1">
-        <v>64</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C6" s="1">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4">
         <v>32</v>
       </c>
       <c r="E6" s="1">
         <v>64</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" ht="26" customHeight="1">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="38">
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="2:6" ht="38">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:6" ht="26" customHeight="1">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" ht="26" customHeight="1">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" ht="38">
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="2:6" ht="38">
+      <c r="B11" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" ht="38">
-      <c r="B11" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" ht="19">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:6" ht="38">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" ht="26" customHeight="1">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>200</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>300</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="4">
         <v>400</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ford/하이퍼파라미터.xlsx
+++ b/Ford/하이퍼파라미터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67033550-4FB0-0C49-8C26-A4806A1CC27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6DDBC8-B2A9-7D45-9B67-C682A658844C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="1240" windowWidth="27900" windowHeight="16760" xr2:uid="{2D612C08-B936-334A-9D89-A8C79B542E65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Conv 1D 레이어수</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>조건4</t>
+  </si>
+  <si>
+    <t>16~24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16~20%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -574,7 +582,7 @@
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -667,10 +675,10 @@
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
         <v>32</v>
       </c>
       <c r="E7" s="1">
@@ -700,8 +708,8 @@
       <c r="C9" s="2">
         <v>0.1</v>
       </c>
-      <c r="D9" s="6">
-        <v>0.2</v>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E9" s="2">
         <v>0.3</v>

--- a/Ford/하이퍼파라미터.xlsx
+++ b/Ford/하이퍼파라미터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6DDBC8-B2A9-7D45-9B67-C682A658844C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220A125-642B-4C4F-9726-EF46A264B3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1240" windowWidth="27900" windowHeight="16760" xr2:uid="{2D612C08-B936-334A-9D89-A8C79B542E65}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{2D612C08-B936-334A-9D89-A8C79B542E65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Conv 1D 레이어수</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -147,6 +147,204 @@
   </si>
   <si>
     <t>16~20%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightedEnsemble_L2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Accuracy: 84.7%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precision: 84.41%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Recall: 83.88%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F1 Score: 84.14%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AUC: 91.95%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>threshold 0.53 -&gt; Accuracy : 85.08%</t>
+    </r>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1 Score</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGBoost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightGBM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatBoost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomForest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogisticRegression</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUC 값은 0~1 을 백분율로 환산한 값</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +352,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,8 +388,46 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,8 +452,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,13 +482,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,6 +582,39 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A2A66-7DDE-7D44-9C3B-9B5B8D244C70}">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -590,189 +941,370 @@
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="6" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="26" customHeight="1">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:13">
+      <c r="M2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="26" customHeight="1">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="26" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="H3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="26" customHeight="1">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="26" customHeight="1">
-      <c r="B4" s="5" t="s">
+      <c r="H4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.84409999999999996</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.91949999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="26" customHeight="1">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="26" customHeight="1">
-      <c r="B5" s="5" t="s">
+      <c r="H5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.77049999999999996</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="K5" s="14">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0.85260000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="26" customHeight="1">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" ht="26" customHeight="1">
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.86370000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="26" customHeight="1">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>16</v>
       </c>
-      <c r="D6" s="4">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1">
-        <v>64</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" ht="26" customHeight="1">
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1">
-        <v>32</v>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="1">
         <v>64</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1"/>
+      <c r="H7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0.83760000000000001</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.91249999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="26" customHeight="1">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="38">
-      <c r="B8" s="5" t="s">
+      <c r="H8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0.7147</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="39" thickBot="1">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" ht="26" customHeight="1">
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.4955</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="26" customHeight="1" thickBot="1">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>0.1</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>0.3</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" ht="26" customHeight="1">
-      <c r="B10" s="5" t="s">
+      <c r="F10" s="1"/>
+      <c r="H10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0.99429999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="26" customHeight="1">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="38">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:13" ht="38">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" ht="38">
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="26" customHeight="1">
+    <row r="13" spans="2:13" ht="38">
       <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:13" ht="26" customHeight="1">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>200</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>300</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="4">
         <v>400</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" ht="30">
+      <c r="F22" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Ford/하이퍼파라미터.xlsx
+++ b/Ford/하이퍼파라미터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220A125-642B-4C4F-9726-EF46A264B3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E60020-A40C-0E4B-AB66-3D0C54E605CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{2D612C08-B936-334A-9D89-A8C79B542E65}"/>
   </bookViews>
